--- a/public/excels/pricing_template.xlsx
+++ b/public/excels/pricing_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="QUERY input sheet" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>length</t>
   </si>
   <si>
-    <t>toyta</t>
-  </si>
-  <si>
     <t>قطعه</t>
   </si>
   <si>
@@ -109,10 +106,13 @@
     <t>thickness</t>
   </si>
   <si>
-    <t>11-22-33-44</t>
-  </si>
-  <si>
-    <t>44-11-aa-gg-33</t>
+    <t xml:space="preserve">62120-28182 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">68101-28241 </t>
+  </si>
+  <si>
+    <t>Toyota</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,40 +615,40 @@
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="5">
         <v>2000</v>
@@ -678,34 +678,34 @@
         <v>10</v>
       </c>
       <c r="Q2" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R2" s="9">
         <v>50</v>
       </c>
       <c r="S2" s="9">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="5">
         <v>2000</v>

--- a/public/excels/pricing_template.xlsx
+++ b/public/excels/pricing_template.xlsx
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
-  <si>
-    <t>Column Definition</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>part_number</t>
   </si>
@@ -79,18 +76,6 @@
     <t>length</t>
   </si>
   <si>
-    <t>قطعه</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>وصف</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
     <t>s1_price</t>
   </si>
   <si>
@@ -106,13 +91,16 @@
     <t>thickness</t>
   </si>
   <si>
-    <t xml:space="preserve">62120-28182 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">68101-28241 </t>
-  </si>
-  <si>
     <t>Toyota</t>
+  </si>
+  <si>
+    <t>62120-28182</t>
+  </si>
+  <si>
+    <t>68101-28241</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -546,203 +534,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="27.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="S1" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="6">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="5">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5">
-        <v>50</v>
-      </c>
-      <c r="M2" s="5">
-        <v>100</v>
-      </c>
-      <c r="N2" s="5">
-        <v>200</v>
-      </c>
-      <c r="O2" s="6">
-        <v>300</v>
-      </c>
-      <c r="P2" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>150</v>
-      </c>
-      <c r="R2" s="9">
-        <v>50</v>
-      </c>
-      <c r="S2" s="9">
-        <v>600</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="K3" s="5">
-        <v>10</v>
-      </c>
-      <c r="L3" s="5">
-        <v>50</v>
-      </c>
-      <c r="M3" s="5">
-        <v>100</v>
-      </c>
-      <c r="N3" s="5">
-        <v>200</v>
-      </c>
-      <c r="O3" s="6">
-        <v>300</v>
-      </c>
-      <c r="P3" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>100</v>
-      </c>
-      <c r="R3" s="9">
-        <v>50</v>
-      </c>
-      <c r="S3" s="9">
-        <v>80</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
